--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrar/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B353F5BD-CF36-1645-A364-0C39D0612CF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290D5470-1E19-E042-B5A1-5807D8A3BE47}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" activeTab="3" xr2:uid="{9FBC3B97-D6A1-E841-90CE-932FF6B7D66D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" activeTab="5" xr2:uid="{9FBC3B97-D6A1-E841-90CE-932FF6B7D66D}"/>
   </bookViews>
   <sheets>
     <sheet name="TPCB-RAW Results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="34">
   <si>
     <t>48GB</t>
   </si>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,6 +266,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,8 +330,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>PostgreSQL Benchmark With Different Clients and Different Workloads</a:t>
+              <a:t>PostgreSQL Benchmark With Different Clients and</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 48GB Database size &lt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -345,10 +356,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.207375307909725E-2"/>
-          <c:y val="0.11707497601760819"/>
-          <c:w val="0.92769324871457304"/>
-          <c:h val="0.63035094639144129"/>
+          <c:x val="0.11541517997028294"/>
+          <c:y val="0.16806651647297632"/>
+          <c:w val="0.84296928224151713"/>
+          <c:h val="0.57935937186321962"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -376,48 +387,29 @@
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB Results'!$E$2:$F$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB
-</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB Results'!$G$2:$G$7</c:f>
+              <c:f>'TPCB Results'!$G$2:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.61009999999999998</c:v>
                 </c:pt>
@@ -426,15 +418,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.57340000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62280000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59660000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,12 +425,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-814C-2147-A79B-6B09C4F0D7B1}"/>
+              <c16:uniqueId val="{00000001-F827-7D43-AD31-005689B5C31F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -468,48 +451,29 @@
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB Results'!$E$2:$F$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB
-</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB Results'!$H$2:$H$7</c:f>
+              <c:f>'TPCB Results'!$H$2:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.6008</c:v>
                 </c:pt>
@@ -518,15 +482,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.58109999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5887</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57279999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +489,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-814C-2147-A79B-6B09C4F0D7B1}"/>
+              <c16:uniqueId val="{00000002-F827-7D43-AD31-005689B5C31F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -607,7 +562,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -756,10 +711,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20959713735014737"/>
-          <c:y val="5.9591836734693877E-2"/>
-          <c:w val="0.46834462704610058"/>
-          <c:h val="4.9578562953603404E-2"/>
+          <c:x val="0.17493728078598647"/>
+          <c:y val="7.9421828645357004E-2"/>
+          <c:w val="0.66412743978247901"/>
+          <c:h val="7.1769534473913141E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -828,7 +783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -863,8 +818,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>PostgreSQL Benchmark With Different Clients and Different Workloads</a:t>
+              <a:t>PostgreSQL Benchmark With Different Clients</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> with 48GB Database size  &lt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -884,21 +844,21 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.207375307909725E-2"/>
-          <c:y val="0.11707497601760819"/>
-          <c:w val="0.92769324871457304"/>
-          <c:h val="0.63035094639144129"/>
+          <c:x val="0.11315345221950084"/>
+          <c:y val="0.17707506561679789"/>
+          <c:w val="0.83643361739165645"/>
+          <c:h val="0.62035091863517045"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCB Results'!$C$1</c:f>
+              <c:f>'TPCC Results'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -916,64 +876,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB Results'!$A$2:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCC Results'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB Results'!$C$2:$C$7</c:f>
+              <c:f>'TPCC Results'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35872.038257</c:v>
+                  <c:v>6110.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33173.883569999998</c:v>
+                  <c:v>6733.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40997.794478000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39604.482947999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43029.197933000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42187.812984999997</c:v>
+                  <c:v>6524.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +914,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A8A5-FB4F-BA08-E54455585227}"/>
+              <c16:uniqueId val="{00000001-2F36-724C-ACF9-0541D8FCA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -990,7 +923,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCB Results'!$D$1</c:f>
+              <c:f>'TPCC Results'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1008,64 +941,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB Results'!$A$2:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCC Results'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB Results'!$D$2:$D$7</c:f>
+              <c:f>'TPCC Results'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35851.622602000003</c:v>
+                  <c:v>6130.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32851.296902000002</c:v>
+                  <c:v>6704.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41115.055316999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39593.091461999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42965.095851999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41634.889708000002</c:v>
+                  <c:v>6406.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +979,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A8A5-FB4F-BA08-E54455585227}"/>
+              <c16:uniqueId val="{00000002-2F36-724C-ACF9-0541D8FCA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1146,7 +1052,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1291,6 +1197,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12331194461874785"/>
+          <c:y val="9.5346456692913389E-2"/>
+          <c:w val="0.70042861769528175"/>
+          <c:h val="8.5590019153011274E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1357,7 +1273,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1392,8 +1308,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>PostgreSQL Benchmark With Different Clients and Different Workloads</a:t>
+              <a:t>PostgreSQL Benchmark With Different Clients</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> with 112GB Database size  &gt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1413,10 +1334,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.207375307909725E-2"/>
-          <c:y val="0.11707497601760819"/>
-          <c:w val="0.92769324871457304"/>
-          <c:h val="0.63035094639144129"/>
+          <c:x val="0.11315345221950084"/>
+          <c:y val="0.17707506561679789"/>
+          <c:w val="0.83643361739165645"/>
+          <c:h val="0.62035091863517045"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1427,11 +1348,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCB-LONG Results'!$G$1</c:f>
+              <c:f>'TPCC Results'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dTLB-load-misses (THP-Disabled)</c:v>
+                  <c:v>Tranparent Huge Pages Disable </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1444,65 +1365,37 @@
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB-LONG Results'!$E$2:$F$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB
-</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCC Results'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB-LONG Results'!$G$2:$G$7</c:f>
+              <c:f>'TPCC Results'!$C$6:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.60609999999999997</c:v>
+                  <c:v>5007.1899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58240000000000003</c:v>
+                  <c:v>5908.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57340000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59630000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58220000000000005</c:v>
+                  <c:v>6020.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,7 +1403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-11E3-FD41-BFBB-558D2F35F9D9}"/>
+              <c16:uniqueId val="{00000001-32C1-F44D-AC76-4C6D5A4DA55F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1519,11 +1412,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCB-LONG Results'!$H$1</c:f>
+              <c:f>'TPCC Results'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dTLB-load-misses (THP-Enabled)</c:v>
+                  <c:v>Transpanet Huge Pages Enable</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1536,65 +1429,37 @@
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB-LONG Results'!$E$2:$F$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB
-</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCC Results'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB-LONG Results'!$H$2:$H$7</c:f>
+              <c:f>'TPCC Results'!$D$6:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.61429999999999996</c:v>
+                  <c:v>4564.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58109999999999995</c:v>
+                  <c:v>5957.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57320000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61950000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.59599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58260000000000001</c:v>
+                  <c:v>5903.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,7 +1467,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C7EB-5B4A-8E6A-4465C9C8D74E}"/>
+              <c16:uniqueId val="{00000002-32C1-F44D-AC76-4C6D5A4DA55F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1675,7 +1540,495 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485956911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485956911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797203491"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12331194461874785"/>
+          <c:y val="9.5346456692913389E-2"/>
+          <c:w val="0.70042861769528175"/>
+          <c:h val="8.4448818897637792E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PostgreSQL Benchmark With Different Clients with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 112GB Database size &gt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11541517997028294"/>
+          <c:y val="0.16806651647297632"/>
+          <c:w val="0.84296928224151713"/>
+          <c:h val="0.57935937186321962"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCC Results'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Disabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCC Results'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCC Results'!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60719999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C66C-044E-A6DC-093FDAADC09B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCC Results'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Enabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCC Results'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCC Results'!$H$6:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.64319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60960000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C66C-044E-A6DC-093FDAADC09B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1797203491"/>
+        <c:axId val="485956911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1797203491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Clients </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1824,10 +2177,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20959713735014737"/>
-          <c:y val="5.9591836734693877E-2"/>
-          <c:w val="0.5198004378083444"/>
-          <c:h val="4.9578562953603404E-2"/>
+          <c:x val="0.15183073393104424"/>
+          <c:y val="9.3586134594365503E-2"/>
+          <c:w val="0.72446120101482825"/>
+          <c:h val="7.1769534473913141E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1896,7 +2249,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1931,8 +2284,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>PostgreSQL Benchmark With Different Clients and Different Workloads</a:t>
+              <a:t>PostgreSQL Benchmark With Different Clients</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> with 48GB Database size  &lt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1952,21 +2310,21 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.207375307909725E-2"/>
-          <c:y val="0.11707497601760819"/>
-          <c:w val="0.92769324871457304"/>
-          <c:h val="0.63035094639144129"/>
+          <c:x val="0.11315345221950084"/>
+          <c:y val="0.17707506561679789"/>
+          <c:w val="0.83643361739165645"/>
+          <c:h val="0.62035091863517045"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCB-LONG Results'!$C$1</c:f>
+              <c:f>'TPCB Results'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1984,64 +2342,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB-LONG Results'!$A$2:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB-LONG Results'!$C$2:$C$7</c:f>
+              <c:f>'TPCB Results'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>33329.836128000003</c:v>
+                  <c:v>35872.038257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38787.333352000001</c:v>
+                  <c:v>33173.883569999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41142.357855000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31134.606287999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34730.137498999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36537.111701000002</c:v>
+                  <c:v>40997.794478000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,16 +2380,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C27C-964E-B2AC-DA49C4958942}"/>
+              <c16:uniqueId val="{00000001-FA48-254D-81F3-E0108F34D07A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCB-LONG Results'!$D$1</c:f>
+              <c:f>'TPCB Results'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2076,64 +2407,37 @@
             <a:effectLst/>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCB-LONG Results'!$A$2:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCB-LONG Results'!$D$2:$D$7</c:f>
+              <c:f>'TPCB Results'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>33482.095494000001</c:v>
+                  <c:v>35851.622602000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38770.441652000001</c:v>
+                  <c:v>32851.296902000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41152.933520999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30659.188539999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34548.194926999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36535.833745999997</c:v>
+                  <c:v>41115.055316999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,7 +2445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C27C-964E-B2AC-DA49C4958942}"/>
+              <c16:uniqueId val="{00000002-FA48-254D-81F3-E0108F34D07A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2214,7 +2518,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2363,10 +2667,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20959713735014737"/>
-          <c:y val="5.9591836734693877E-2"/>
-          <c:w val="0.5198004378083444"/>
-          <c:h val="4.9578562953603404E-2"/>
+          <c:x val="0.12331194461874785"/>
+          <c:y val="9.5346456692913389E-2"/>
+          <c:w val="0.70042861769528175"/>
+          <c:h val="8.5590019153011274E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2435,7 +2739,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2470,8 +2774,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>PostgreSQL Benchmark With Different Clients and Different Workloads</a:t>
+              <a:t>PostgreSQL Benchmark With Different Clients</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> with 112GB Database size  &gt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2491,21 +2800,21 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.207375307909725E-2"/>
-          <c:y val="0.11707497601760819"/>
-          <c:w val="0.92769324871457304"/>
-          <c:h val="0.63035094639144129"/>
+          <c:x val="0.11315345221950084"/>
+          <c:y val="0.17707506561679789"/>
+          <c:w val="0.83643361739165645"/>
+          <c:h val="0.62035091863517045"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCC Results'!$C$1</c:f>
+              <c:f>'TPCB Results'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2515,76 +2824,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCC Results'!$A$2:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCC Results'!$C$2:$C$7</c:f>
+              <c:f>'TPCB Results'!$C$6:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6110.35</c:v>
+                  <c:v>39604.482947999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6733.93</c:v>
+                  <c:v>43029.197933000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6524.37</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5007.1899999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5908.19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6020.35</c:v>
+                  <c:v>42187.812984999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,16 +2869,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9646-EF48-BD2D-9E7109F13178}"/>
+              <c16:uniqueId val="{00000001-7419-354B-9C65-F7E402AF89B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCC Results'!$D$1</c:f>
+              <c:f>'TPCB Results'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2611,76 +2888,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCC Results'!$A$2:$B$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCC Results'!$D$2:$D$7</c:f>
+              <c:f>'TPCB Results'!$D$6:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6130.73</c:v>
+                  <c:v>39593.091461999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6704.98</c:v>
+                  <c:v>42965.095851999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6406.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4564.33</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5957.96</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5903.77</c:v>
+                  <c:v>41634.889708000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2688,7 +2933,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9646-EF48-BD2D-9E7109F13178}"/>
+              <c16:uniqueId val="{00000002-7419-354B-9C65-F7E402AF89B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2700,6 +2945,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1797203491"/>
         <c:axId val="485956911"/>
@@ -2760,7 +3006,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2909,10 +3155,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20959713735014737"/>
-          <c:y val="5.9591836734693877E-2"/>
-          <c:w val="0.44924440607331345"/>
-          <c:h val="6.2670737586373135E-2"/>
+          <c:x val="0.12331194461874785"/>
+          <c:y val="9.5346456692913389E-2"/>
+          <c:w val="0.70042861769528175"/>
+          <c:h val="8.4448818897637792E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2981,7 +3227,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3016,8 +3262,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>PostgreSQL Benchmark With Different Clients and Different Workloads</a:t>
+              <a:t>PostgreSQL Benchmark With Different Clients with</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 112GB Database size &gt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3037,10 +3288,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.207375307909725E-2"/>
-          <c:y val="0.11707497601760819"/>
-          <c:w val="0.92769324871457304"/>
-          <c:h val="0.63035094639144129"/>
+          <c:x val="0.11541517997028294"/>
+          <c:y val="0.16806651647297632"/>
+          <c:w val="0.84296928224151713"/>
+          <c:h val="0.57935937186321962"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3051,7 +3302,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCC Results'!$G$1</c:f>
+              <c:f>'TPCB Results'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3068,65 +3319,37 @@
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCC Results'!$E$2:$F$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB
-</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCC Results'!$G$2:$G$7</c:f>
+              <c:f>'TPCB Results'!$G$6:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6038</c:v>
+                  <c:v>0.62280000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>0.59660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60970000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61609999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60719999999999996</c:v>
+                  <c:v>0.5827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,7 +3357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E61-B54D-8457-4D638159F95B}"/>
+              <c16:uniqueId val="{00000001-0EF0-6E45-BC69-179A4A84C1F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3143,7 +3366,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TPCC Results'!$H$1</c:f>
+              <c:f>'TPCB Results'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3160,65 +3383,37 @@
             </a:ln>
           </c:spPr>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'TPCC Results'!$E$2:$F$7</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>256</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>64</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>128</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>256</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Database Size = 48GB
-</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Database Size = 112GB</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:numRef>
+              <c:f>'TPCB Results'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TPCC Results'!$H$2:$H$7</c:f>
+              <c:f>'TPCB Results'!$H$6:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.60489999999999999</c:v>
+                  <c:v>0.5887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60570000000000002</c:v>
+                  <c:v>0.56979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60880000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5958</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60960000000000003</c:v>
+                  <c:v>0.57279999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,7 +3421,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E61-B54D-8457-4D638159F95B}"/>
+              <c16:uniqueId val="{00000002-0EF0-6E45-BC69-179A4A84C1F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3299,7 +3494,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3448,10 +3643,2452 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20959713735014737"/>
-          <c:y val="5.9591836734693877E-2"/>
-          <c:w val="0.5198004378083444"/>
-          <c:h val="4.9578562953603404E-2"/>
+          <c:x val="0.14669594574105707"/>
+          <c:y val="9.6418995784167211E-2"/>
+          <c:w val="0.72446120101482825"/>
+          <c:h val="7.1769534473913141E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PostgreSQL Benchmark With Different Clients and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 48GB Database size &lt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11541517997028294"/>
+          <c:y val="0.16806651647297632"/>
+          <c:w val="0.84296928224151713"/>
+          <c:h val="0.57935937186321962"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Disabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.60609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57340000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7EB-5B4A-8E6A-4465C9C8D74E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Enabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.61429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58109999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57320000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDA9-4C4D-B7AD-E24B5A2B14C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1797203491"/>
+        <c:axId val="485956911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1797203491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Clients </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485956911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485956911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797203491"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1569655221210314"/>
+          <c:y val="9.0753273404563808E-2"/>
+          <c:w val="0.72446120101482825"/>
+          <c:h val="7.1769534473913141E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PostgreSQL Benchmark With Different Clients</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> with 48GB Database size  &lt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11315345221950084"/>
+          <c:y val="0.17707506561679789"/>
+          <c:w val="0.83643361739165645"/>
+          <c:h val="0.62035091863517045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tranparent Huge Pages Disable </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33329.836128000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38787.333352000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41142.357855000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C27C-964E-B2AC-DA49C4958942}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transpanet Huge Pages Enable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33482.095494000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38770.441652000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41152.933520999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9598-0042-99A2-5898882124F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1797203491"/>
+        <c:axId val="485956911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1797203491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Clients </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485956911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485956911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797203491"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12331194461874785"/>
+          <c:y val="9.5346456692913389E-2"/>
+          <c:w val="0.70042861769528175"/>
+          <c:h val="8.5590019153011274E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PostgreSQL Benchmark With Different Clients</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> with 112GB Database size  &gt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11315345221950084"/>
+          <c:y val="0.17707506561679789"/>
+          <c:w val="0.83643361739165645"/>
+          <c:h val="0.62035091863517045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tranparent Huge Pages Disable </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31134.606287999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34730.137498999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36537.111701000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CA7-8242-A305-C15027C7F398}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transpanet Huge Pages Enable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$B$6:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30659.188539999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34548.194926999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36535.833745999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9CA7-8242-A305-C15027C7F398}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1797203491"/>
+        <c:axId val="485956911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1797203491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Clients </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485956911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485956911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797203491"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12331194461874785"/>
+          <c:y val="9.5346456692913389E-2"/>
+          <c:w val="0.70042861769528175"/>
+          <c:h val="8.4448818897637792E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PostgreSQL Benchmark With Different Clients with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 112GB Database size &gt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11541517997028294"/>
+          <c:y val="0.16806651647297632"/>
+          <c:w val="0.84296928224151713"/>
+          <c:h val="0.57935937186321962"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Disabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59630000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58220000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B82-D649-A146-BA32E776E406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCB-LONG Results'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Enabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCB-LONG Results'!$H$6:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.61950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58260000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B82-D649-A146-BA32E776E406}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1797203491"/>
+        <c:axId val="485956911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1797203491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Clients </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485956911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485956911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797203491"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15183073393104424"/>
+          <c:y val="9.3586134594365503E-2"/>
+          <c:w val="0.72446120101482825"/>
+          <c:h val="7.1769534473913141E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PostgreSQL Benchmark With Different Clients and</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 48GB Database size &lt; shared_buffer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11541517997028294"/>
+          <c:y val="0.16806651647297632"/>
+          <c:w val="0.84296928224151713"/>
+          <c:h val="0.57935937186321962"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCC Results'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Disabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCC Results'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCC Results'!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.6038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60970000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B163-914B-8055-500E93FA76F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TPCC Results'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dTLB-load-misses (THP-Enabled)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPCC Results'!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPCC Results'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.60489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60880000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B163-914B-8055-500E93FA76F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1797203491"/>
+        <c:axId val="485956911"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1797203491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Clients </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485956911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485956911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1797203491"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1569655221210314"/>
+          <c:y val="9.0753273404563808E-2"/>
+          <c:w val="0.72446120101482825"/>
+          <c:h val="7.1769534473913141E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3525,17 +6162,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="15303500" cy="6489700"/>
+    <xdr:ext cx="9893300" cy="4483100"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+        <xdr:cNvPr id="5" name="Chart 4" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC7DC40-B742-4142-A6E0-21800D6A0B0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E45ED8-8469-B64E-856A-014780AC907E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,18 +6194,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="15303500" cy="6489700"/>
+    <xdr:ext cx="9880600" cy="3759200"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3" title="Chart">
+        <xdr:cNvPr id="6" name="Chart 5" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76463B2-F9A3-DE4F-90C5-0E90073E84A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48602E7-52C9-0C42-80AB-375FC8AEEB1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3588,6 +6225,72 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9880600" cy="3810000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A66874-8DD6-794C-8958-8C2DB8B7CCEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9893300" cy="4483100"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3DA652-420D-5D40-B21F-2E69E72EC69F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3596,11 +6299,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="15303500" cy="6489700"/>
+    <xdr:ext cx="9893300" cy="4483100"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1" title="Chart">
@@ -3629,11 +6332,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1168400</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="15303500" cy="6489700"/>
+    <xdr:ext cx="9880600" cy="3759200"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2" title="Chart">
@@ -3659,6 +6362,72 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9880600" cy="3810000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488ADD80-6100-084A-9DC0-B6C19CC0C507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9893300" cy="4483100"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384E9899-F787-E046-B76C-6E49680501C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3668,16 +6437,16 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="15430500" cy="5930900"/>
+    <xdr:ext cx="9893300" cy="4483100"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2" title="Chart">
+        <xdr:cNvPr id="5" name="Chart 4" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2B70F8-5DC4-D445-92B9-E2A0CA273565}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB48F95-BA98-1343-909C-0CE39C58ABD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3700,17 +6469,17 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="15303500" cy="6489700"/>
+    <xdr:ext cx="9880600" cy="3759200"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3" title="Chart">
+        <xdr:cNvPr id="6" name="Chart 5" title="Chart">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65BF249-A80B-D24D-8C49-B24167E2E00F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF8023B-65B4-1941-B477-EE1A71419B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,6 +6494,72 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9880600" cy="3810000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07422845-D170-D542-B7E5-0641ADDB00C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9893300" cy="4483100"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9AA3E3-DDD3-CD4B-B3B8-074290CE879C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4075,7 +6910,7 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13">
@@ -4107,7 +6942,7 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="13">
         <v>64</v>
       </c>
@@ -4134,7 +6969,7 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="13">
         <v>64</v>
       </c>
@@ -4158,7 +6993,7 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3">
         <v>128</v>
       </c>
@@ -4188,7 +7023,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3">
         <v>128</v>
       </c>
@@ -4215,7 +7050,7 @@
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3">
         <v>128</v>
       </c>
@@ -4242,7 +7077,7 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="13">
         <v>256</v>
       </c>
@@ -4272,7 +7107,7 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="13">
         <v>256</v>
       </c>
@@ -4299,7 +7134,7 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="13">
         <v>256</v>
       </c>
@@ -4326,7 +7161,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3">
@@ -4358,7 +7193,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3">
         <v>64</v>
       </c>
@@ -4385,7 +7220,7 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3">
         <v>64</v>
       </c>
@@ -4412,7 +7247,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="13">
         <v>128</v>
       </c>
@@ -4442,7 +7277,7 @@
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="13">
         <v>128</v>
       </c>
@@ -4469,7 +7304,7 @@
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="13">
         <v>128</v>
       </c>
@@ -4496,7 +7331,7 @@
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3">
         <v>256</v>
       </c>
@@ -4526,7 +7361,7 @@
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>256</v>
       </c>
@@ -4553,7 +7388,7 @@
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3">
         <v>256</v>
       </c>
@@ -4619,7 +7454,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="13">
@@ -4644,7 +7479,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="13">
         <v>64</v>
       </c>
@@ -4664,7 +7499,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="13">
         <v>64</v>
       </c>
@@ -4684,7 +7519,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="3">
         <v>128</v>
       </c>
@@ -4707,7 +7542,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="3">
         <v>128</v>
       </c>
@@ -4727,7 +7562,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="3">
         <v>128</v>
       </c>
@@ -4747,7 +7582,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="13">
         <v>256</v>
       </c>
@@ -4770,7 +7605,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="13">
         <v>256</v>
       </c>
@@ -4790,7 +7625,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="13">
         <v>256</v>
       </c>
@@ -4810,7 +7645,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="3">
@@ -4835,7 +7670,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="3">
         <v>64</v>
       </c>
@@ -4855,7 +7690,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="3">
         <v>64</v>
       </c>
@@ -4875,7 +7710,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="13">
         <v>128</v>
       </c>
@@ -4898,7 +7733,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="13">
         <v>128</v>
       </c>
@@ -4918,7 +7753,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="13">
         <v>128</v>
       </c>
@@ -4938,7 +7773,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="3">
         <v>256</v>
       </c>
@@ -4961,7 +7796,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="3">
         <v>256</v>
       </c>
@@ -4981,7 +7816,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="3">
         <v>256</v>
       </c>
@@ -5033,10 +7868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089395C-0A23-FD4E-AE9F-E46753D92B4E}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5076,7 +7911,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
@@ -5088,7 +7923,7 @@
       <c r="D2" s="1">
         <v>35851.622602000003</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="24">
@@ -5104,7 +7939,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="1">
         <v>128</v>
       </c>
@@ -5114,7 +7949,7 @@
       <c r="D3" s="1">
         <v>32851.296902000002</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="24">
         <v>128</v>
       </c>
@@ -5128,7 +7963,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1">
         <v>256</v>
       </c>
@@ -5138,7 +7973,7 @@
       <c r="D4" s="1">
         <v>41115.055316999998</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="24">
         <v>256</v>
       </c>
@@ -5151,87 +7986,105 @@
         <v>0.58109999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>64</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>39604.482947999997</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>39593.091461999997</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F6" s="24">
         <v>64</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G6" s="9">
         <f>'TPCB-RAW Results'!$H11</f>
         <v>0.62280000000000002</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H6" s="17">
         <f>'TPCB-RAW Results'!$H$34</f>
         <v>0.5887</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="1">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>43029.197933000003</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>42965.095851999999</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="24">
+      <c r="E7" s="27"/>
+      <c r="F7" s="24">
         <v>128</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <f>'TPCB-RAW Results'!$H14</f>
         <v>0.59660000000000002</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <f>'TPCB-RAW Results'!$H$37</f>
         <v>0.56979999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="1">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="1">
         <v>256</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>42187.812984999997</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>41634.889708000002</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24">
+      <c r="E8" s="27"/>
+      <c r="F8" s="24">
         <v>256</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <f>'TPCB-RAW Results'!$H17</f>
         <v>0.5827</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <f>'TPCB-RAW Results'!$H$40</f>
         <v>0.57279999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="23"/>
@@ -5283,7 +8136,7 @@
     </row>
     <row r="17" spans="5:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="23"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
@@ -5299,12 +8152,18 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
+    <row r="20" spans="5:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="23"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5353,7 +8212,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13">
@@ -5381,7 +8240,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="13">
         <v>64</v>
       </c>
@@ -5404,7 +8263,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="13">
         <v>64</v>
       </c>
@@ -5427,7 +8286,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3">
         <v>128</v>
       </c>
@@ -5453,7 +8312,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3">
         <v>128</v>
       </c>
@@ -5476,7 +8335,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3">
         <v>128</v>
       </c>
@@ -5499,7 +8358,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="13">
         <v>256</v>
       </c>
@@ -5525,7 +8384,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="13">
         <v>256</v>
       </c>
@@ -5548,7 +8407,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="13">
         <v>256</v>
       </c>
@@ -5571,7 +8430,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3">
@@ -5599,7 +8458,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3">
         <v>64</v>
       </c>
@@ -5622,7 +8481,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3">
         <v>64</v>
       </c>
@@ -5645,7 +8504,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="13">
         <v>128</v>
       </c>
@@ -5671,7 +8530,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="13">
         <v>128</v>
       </c>
@@ -5694,7 +8553,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="13">
         <v>128</v>
       </c>
@@ -5717,7 +8576,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3">
         <v>256</v>
       </c>
@@ -5743,7 +8602,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>256</v>
       </c>
@@ -5766,7 +8625,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3">
         <v>256</v>
       </c>
@@ -5831,7 +8690,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="13">
@@ -5859,7 +8718,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="13">
         <v>64</v>
       </c>
@@ -5882,7 +8741,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="13">
         <v>64</v>
       </c>
@@ -5905,7 +8764,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="3">
         <v>128</v>
       </c>
@@ -5931,7 +8790,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="3">
         <v>128</v>
       </c>
@@ -5954,7 +8813,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="3">
         <v>128</v>
       </c>
@@ -5977,7 +8836,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="13">
         <v>256</v>
       </c>
@@ -6003,7 +8862,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="13">
         <v>256</v>
       </c>
@@ -6026,7 +8885,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="13">
         <v>256</v>
       </c>
@@ -6049,7 +8908,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="3">
@@ -6077,7 +8936,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>64</v>
       </c>
@@ -6100,7 +8959,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="3">
         <v>64</v>
       </c>
@@ -6123,7 +8982,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="13">
         <v>128</v>
       </c>
@@ -6149,7 +9008,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="13">
         <v>128</v>
       </c>
@@ -6172,7 +9031,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="13">
         <v>128</v>
       </c>
@@ -6195,7 +9054,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="3">
         <v>256</v>
       </c>
@@ -6221,7 +9080,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="3">
         <v>256</v>
       </c>
@@ -6244,7 +9103,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="3">
         <v>256</v>
       </c>
@@ -6325,10 +9184,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA377E-0DC3-9D4F-9333-8C705D56CF95}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6367,7 +9226,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
@@ -6381,7 +9240,7 @@
         <f>'TPCB-LONG-RAW Results'!$D$24</f>
         <v>33482.095494000001</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="24">
@@ -6397,7 +9256,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="1">
         <v>128</v>
       </c>
@@ -6409,7 +9268,7 @@
         <f>'TPCB-LONG-RAW Results'!$D$27</f>
         <v>38770.441652000001</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="24">
         <v>128</v>
       </c>
@@ -6423,7 +9282,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1">
         <v>256</v>
       </c>
@@ -6435,7 +9294,7 @@
         <f>'TPCB-LONG-RAW Results'!$D$30</f>
         <v>41152.933520999999</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="24">
         <v>256</v>
       </c>
@@ -6448,106 +9307,124 @@
         <v>0.57320000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>64</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>'TPCB-LONG-RAW Results'!$D$11</f>
         <v>31134.606287999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>'TPCB-LONG-RAW Results'!$D$33</f>
         <v>30659.188539999999</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F6" s="24">
         <v>64</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G6" s="17">
         <f>'TPCB-LONG-RAW Results'!$H$11</f>
         <v>0.62270000000000003</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H6" s="17">
         <f>'TPCB-LONG-RAW Results'!$H$33</f>
         <v>0.61950000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="1">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>'TPCB-LONG-RAW Results'!$D$14</f>
         <v>34730.137498999997</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>'TPCB-LONG-RAW Results'!$D$36</f>
         <v>34548.194926999997</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="24">
+      <c r="E7" s="27"/>
+      <c r="F7" s="24">
         <v>128</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <f>'TPCB-LONG-RAW Results'!$H$14</f>
         <v>0.59630000000000005</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <f>'TPCB-LONG-RAW Results'!$H$36</f>
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="1">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="1">
         <v>256</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>'TPCB-LONG-RAW Results'!$D$17</f>
         <v>36537.111701000002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f>'TPCB-LONG-RAW Results'!$D$39</f>
         <v>36535.833745999997</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24">
+      <c r="E8" s="27"/>
+      <c r="F8" s="24">
         <v>256</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <f>'TPCB-LONG-RAW Results'!$H$17</f>
         <v>0.58220000000000005</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <f>'TPCB-LONG-RAW Results'!$H$39</f>
         <v>0.58260000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="17"/>
-    </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>35943.563803833335</v>
-      </c>
-      <c r="D9" s="1">
-        <f>AVERAGE(D2:D7)</f>
-        <v>35858.114646666661</v>
-      </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>35943.563803833335</v>
+      </c>
+      <c r="D10" s="1">
+        <f>AVERAGE(D2:D8)</f>
+        <v>35858.114646666661</v>
+      </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
     </row>
@@ -6577,7 +9454,7 @@
     </row>
     <row r="17" spans="5:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="23"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="5:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="23"/>
@@ -6587,14 +9464,18 @@
       <c r="E19" s="23"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="2"/>
+    <row r="20" spans="5:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="23"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6644,7 +9525,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13">
@@ -6672,7 +9553,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="13">
         <v>64</v>
       </c>
@@ -6695,7 +9576,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="13">
         <v>64</v>
       </c>
@@ -6718,7 +9599,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="3">
         <v>128</v>
       </c>
@@ -6744,7 +9625,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3">
         <v>128</v>
       </c>
@@ -6767,7 +9648,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="3">
         <v>128</v>
       </c>
@@ -6790,7 +9671,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="13">
         <v>256</v>
       </c>
@@ -6816,7 +9697,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="13">
         <v>256</v>
       </c>
@@ -6839,7 +9720,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="13">
         <v>256</v>
       </c>
@@ -6862,7 +9743,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="3">
@@ -6890,7 +9771,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3">
         <v>64</v>
       </c>
@@ -6913,7 +9794,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3">
         <v>64</v>
       </c>
@@ -6936,7 +9817,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="13">
         <v>128</v>
       </c>
@@ -6962,7 +9843,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="13">
         <v>128</v>
       </c>
@@ -6985,7 +9866,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="13">
         <v>128</v>
       </c>
@@ -7008,7 +9889,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="3">
         <v>256</v>
       </c>
@@ -7034,7 +9915,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3">
         <v>256</v>
       </c>
@@ -7057,7 +9938,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="3">
         <v>256</v>
       </c>
@@ -7122,7 +10003,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="13">
@@ -7150,7 +10031,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="13">
         <v>64</v>
       </c>
@@ -7173,7 +10054,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="13">
         <v>64</v>
       </c>
@@ -7196,7 +10077,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="3">
         <v>128</v>
       </c>
@@ -7222,7 +10103,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="3">
         <v>128</v>
       </c>
@@ -7245,7 +10126,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="3">
         <v>128</v>
       </c>
@@ -7268,7 +10149,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="13">
         <v>256</v>
       </c>
@@ -7294,7 +10175,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="13">
         <v>256</v>
       </c>
@@ -7317,7 +10198,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="13">
         <v>256</v>
       </c>
@@ -7340,7 +10221,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="3">
@@ -7368,7 +10249,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="3">
         <v>64</v>
       </c>
@@ -7391,7 +10272,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="3">
         <v>64</v>
       </c>
@@ -7414,7 +10295,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="13">
         <v>128</v>
       </c>
@@ -7440,7 +10321,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="13">
         <v>128</v>
       </c>
@@ -7463,7 +10344,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="13">
         <v>128</v>
       </c>
@@ -7486,7 +10367,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="3">
         <v>256</v>
       </c>
@@ -7512,7 +10393,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="3">
         <v>256</v>
       </c>
@@ -7535,7 +10416,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="3">
         <v>256</v>
       </c>
@@ -7616,10 +10497,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E4F369-1490-CA4F-A0A3-CB856A1A3266}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7659,7 +10540,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
@@ -7673,7 +10554,7 @@
         <f>'TPCC-RAW Results'!$D$24</f>
         <v>6130.73</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="24">
@@ -7689,7 +10570,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="1">
         <v>128</v>
       </c>
@@ -7701,7 +10582,7 @@
         <f>'TPCC-RAW Results'!$D$27</f>
         <v>6704.98</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="24">
         <v>128</v>
       </c>
@@ -7715,7 +10596,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1">
         <v>256</v>
       </c>
@@ -7727,7 +10608,7 @@
         <f>'TPCC-RAW Results'!$D$30</f>
         <v>6406.66</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="24">
         <v>256</v>
       </c>
@@ -7740,93 +10621,109 @@
         <v>0.60880000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>64</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>'TPCC-RAW Results'!$D$11</f>
         <v>5007.1899999999996</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>'TPCC-RAW Results'!$D$33</f>
         <v>4564.33</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F6" s="24">
         <v>64</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G6" s="17">
         <f>'TPCC-RAW Results'!$H$11</f>
         <v>0.61899999999999999</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H6" s="9">
         <f>'TPCC-RAW Results'!$H$33</f>
         <v>0.64319999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="1">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="1">
         <v>128</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>'TPCC-RAW Results'!$D$14</f>
         <v>5908.19</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>'TPCC-RAW Results'!$D$36</f>
         <v>5957.96</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="24">
+      <c r="E7" s="27"/>
+      <c r="F7" s="24">
         <v>128</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <f>'TPCC-RAW Results'!$H$14</f>
         <v>0.61609999999999998</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="9">
         <f>'TPCC-RAW Results'!$H$36</f>
         <v>0.5958</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="1">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="1">
         <v>256</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>'TPCC-RAW Results'!$D$17</f>
         <v>6020.35</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f>'TPCC-RAW Results'!$D$39</f>
         <v>5903.77</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24">
+      <c r="E8" s="27"/>
+      <c r="F8" s="24">
         <v>256</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <f>'TPCC-RAW Results'!$H$17</f>
         <v>0.60719999999999996</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="9">
         <f>'TPCC-RAW Results'!$H$39</f>
         <v>0.60960000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="23"/>
@@ -7878,7 +10775,7 @@
     </row>
     <row r="17" spans="5:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="23"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
     </row>
@@ -7894,12 +10791,18 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
     </row>
+    <row r="20" spans="5:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="23"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
